--- a/20170707周报/技术支撑服务人员周报日报（20170701-20170708）.xlsx
+++ b/20170707周报/技术支撑服务人员周报日报（20170701-20170708）.xlsx
@@ -138,12 +138,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,14 +184,103 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,134 +301,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,187 +348,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,30 +564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -617,10 +581,28 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -641,11 +623,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,8 +656,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,143 +679,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -853,9 +841,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1209,17 +1194,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1435,7 +1419,7 @@
       <c r="F8" s="7">
         <v>42924</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="8" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -1449,7 +1433,7 @@
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1461,10 +1445,10 @@
       <c r="F9" s="7">
         <v>42924</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1475,7 +1459,7 @@
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1491,7 +1475,7 @@
         <v>30</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="34.5" spans="1:8">
@@ -1501,7 +1485,7 @@
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1513,10 +1497,10 @@
       <c r="F11" s="7">
         <v>42924</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1528,7 +1512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>

--- a/20170707周报/技术支撑服务人员周报日报（20170701-20170708）.xlsx
+++ b/20170707周报/技术支撑服务人员周报日报（20170701-20170708）.xlsx
@@ -89,13 +89,13 @@
 </t>
   </si>
   <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>陈毅昌</t>
   </si>
   <si>
     <t>1跟着内容小组做一些简单的需求并熟悉业务流程</t>
-  </si>
-  <si>
-    <t>代码</t>
   </si>
   <si>
     <t>王琪</t>
@@ -138,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -185,6 +185,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -192,14 +199,89 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,46 +296,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,72 +332,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -348,12 +348,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,163 +498,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +564,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -582,58 +632,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,148 +667,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1371,7 +1371,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="34.5" spans="1:8">
@@ -1382,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
@@ -1394,10 +1394,10 @@
         <v>42924</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" ht="103.5" spans="1:8">
@@ -1475,7 +1475,7 @@
         <v>30</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="34.5" spans="1:8">

--- a/20170707周报/技术支撑服务人员周报日报（20170701-20170708）.xlsx
+++ b/20170707周报/技术支撑服务人员周报日报（20170701-20170708）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,10 @@
     <t>杜智恒</t>
   </si>
   <si>
-    <t>1.对elasticsearch项目的字符解析阶段做了代码优化，提高解析速度。      2.学习lua的基础数据类型和结构控制语句            3.了解网关项目和nginx的基本概览</t>
+    <t>1.对elasticsearch项目的字符解析阶段做了代码优化，提高解析速度。      2.尝试使用lua的基础数据类型和结构控制语句            3.了解网关项目和nginx的基本概览</t>
+  </si>
+  <si>
+    <t>代码</t>
   </si>
   <si>
     <t>凌河源</t>
@@ -87,9 +90,6 @@
     <t xml:space="preserve">1.修改6月需求界面，解决时间控件不刷新的bug
 2.阅读移动音乐基地用户中心社交接口说明书，为开发业务需求做准备
 </t>
-  </si>
-  <si>
-    <t>代码</t>
   </si>
   <si>
     <t>陈毅昌</t>
@@ -138,8 +138,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -198,6 +198,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -205,13 +228,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -219,22 +283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,81 +306,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -348,13 +348,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,13 +438,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,139 +510,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,56 +564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -639,6 +589,56 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -656,8 +656,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,148 +667,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1293,7 +1293,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="51.75" spans="1:8">
@@ -1304,7 +1304,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>11</v>
@@ -1316,7 +1316,7 @@
         <v>42924</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>13</v>
@@ -1330,7 +1330,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>11</v>
@@ -1342,7 +1342,7 @@
         <v>42924</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>13</v>
@@ -1356,7 +1356,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
@@ -1368,10 +1368,10 @@
         <v>42924</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="34.5" spans="1:8">
@@ -1397,7 +1397,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="103.5" spans="1:8">
@@ -1475,7 +1475,7 @@
         <v>30</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="34.5" spans="1:8">
